--- a/data-raw/metadata/survey_locations_metadata.xlsx
+++ b/data-raw/metadata/survey_locations_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/feather-mini-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A44831-F1B5-5140-A06D-5ED0E5BE3C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665D2350-C66E-B04E-B333-784F6592894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62240" yWindow="500" windowWidth="32240" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61180" yWindow="1660" windowWidth="32240" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -23,33 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CB8758EB-8F9C-D345-AF55-BBDF40F80193}</author>
-    <author>tc={FC542255-4582-9640-A04F-74393AAA7243}</author>
-  </authors>
-  <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{CB8758EB-8F9C-D345-AF55-BBDF40F80193}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Described correctly?</t>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{FC542255-4582-9640-A04F-74393AAA7243}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    How was this measured?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -214,9 +187,6 @@
     <t>River mile where survey was conducted. River mile was based on observation of surveyors when collecting data.</t>
   </si>
   <si>
-    <t>Width of channel</t>
-  </si>
-  <si>
     <t>Feather River channel type where survey was conducted. Levels = c("mainchannel", "mainchannel branch", "sidechannel")</t>
   </si>
   <si>
@@ -248,6 +218,9 @@
   </si>
   <si>
     <t>meter</t>
+  </si>
+  <si>
+    <t>Width of channel at water line which may vary and is dependent on discharge.</t>
   </si>
 </sst>
 </file>
@@ -380,9 +353,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ashley Vizek" id="{6B777CD7-C9E6-B84F-BABC-C12B226E586B}" userId="d4747e6e06773ba2" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,24 +552,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B8" dT="2024-06-18T22:31:24.39" personId="{6B777CD7-C9E6-B84F-BABC-C12B226E586B}" id="{CB8758EB-8F9C-D345-AF55-BBDF40F80193}">
-    <text>Described correctly?</text>
-  </threadedComment>
-  <threadedComment ref="B9" dT="2024-06-18T22:31:08.60" personId="{6B777CD7-C9E6-B84F-BABC-C12B226E586B}" id="{FC542255-4582-9640-A04F-74393AAA7243}">
-    <text>How was this measured?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,7 +794,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -983,7 +943,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>17</v>
@@ -1079,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>17</v>
@@ -1127,7 +1087,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>17</v>
@@ -1160,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1175,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>17</v>
@@ -1208,7 +1168,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1243,10 +1203,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1281,10 +1241,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1299,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>17</v>
@@ -1329,10 +1289,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1347,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>17</v>
@@ -29043,7 +29003,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data-raw/metadata/survey_locations_metadata.xlsx
+++ b/data-raw/metadata/survey_locations_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/feather-mini-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665D2350-C66E-B04E-B333-784F6592894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346C9639-4D15-6D40-AA80-0345B15B0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61180" yWindow="1660" windowWidth="32240" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29660" yWindow="500" windowWidth="32240" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -352,10 +352,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -558,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -877,13 +873,13 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>50</v>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>38</v>
@@ -894,8 +890,8 @@
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
+      <c r="G8" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
@@ -903,11 +899,11 @@
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="15">
-        <v>46</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
-      <c r="M8" s="15">
-        <v>66.599999999999994</v>
+      <c r="M8" s="3">
+        <v>2000</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -925,13 +921,13 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
@@ -939,11 +935,11 @@
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>60</v>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>17</v>
@@ -952,10 +948,10 @@
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -973,10 +969,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -988,10 +984,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>
@@ -1000,10 +996,10 @@
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M10" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1021,10 +1017,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1048,10 +1044,10 @@
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M11" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1069,10 +1065,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -1095,11 +1091,11 @@
       <c r="I12" s="2"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="3">
-        <v>4</v>
+      <c r="L12" s="11">
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1117,38 +1113,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>160</v>
-      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1165,28 +1151,38 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
+      <c r="B14" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="15">
+        <v>46</v>
+      </c>
+      <c r="M14" s="15">
+        <v>66.599999999999994</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -28988,16 +28984,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C64:C1007 C40:C52 C36:C38 C1:C33" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C64:C1007 C40:C52 C36:C38 C1:C7 C8:C33" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E40:E1007 E36:E38 E1:E33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E40:E1007 E36:E38 E1:E7 E8:E33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F40:F1007 F36:F38 F1:F33" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F40:F1007 F36:F38 F1:F7 F8:F33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H40:H1007 H36:H38 H1:H33" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H40:H1007 H36:H38 H1:H7 H8:H33" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
